--- a/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69557</v>
+        <v>69556</v>
       </c>
       <c r="D9" t="n">
         <v>10018</v>
       </c>
       <c r="E9" t="n">
-        <v>191325963</v>
+        <v>191321361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278095</v>
+        <v>278093</v>
       </c>
       <c r="D10" t="n">
         <v>29586</v>
       </c>
       <c r="E10" t="n">
-        <v>1751062814</v>
+        <v>1751026417</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>119177</v>
+        <v>119174</v>
       </c>
       <c r="D14" t="n">
-        <v>25291</v>
+        <v>25290</v>
       </c>
       <c r="E14" t="n">
-        <v>379185654</v>
+        <v>379158686</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>108882</v>
+        <v>108879</v>
       </c>
       <c r="D19" t="n">
         <v>13557</v>
       </c>
       <c r="E19" t="n">
-        <v>344371442</v>
+        <v>344360661</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2296,13 +2296,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>55745</v>
+        <v>55743</v>
       </c>
       <c r="D46" t="n">
         <v>13294</v>
       </c>
       <c r="E46" t="n">
-        <v>174066078</v>
+        <v>174066006</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>10535</v>
+        <v>10534</v>
       </c>
       <c r="D64" t="n">
         <v>1958</v>
       </c>
       <c r="E64" t="n">
-        <v>25241365</v>
+        <v>25235618</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>26153</v>
+        <v>26152</v>
       </c>
       <c r="D81" t="n">
         <v>2825</v>
       </c>
       <c r="E81" t="n">
-        <v>164984477</v>
+        <v>164983877</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>136530</v>
+        <v>136529</v>
       </c>
       <c r="D99" t="n">
         <v>14096</v>
       </c>
       <c r="E99" t="n">
-        <v>862704807</v>
+        <v>862699431</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>13704</v>
+        <v>13703</v>
       </c>
       <c r="D102" t="n">
         <v>3100</v>
       </c>
       <c r="E102" t="n">
-        <v>28900107</v>
+        <v>28894138</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>22087</v>
+        <v>22086</v>
       </c>
       <c r="D104" t="n">
         <v>4583</v>
       </c>
       <c r="E104" t="n">
-        <v>84757147</v>
+        <v>84715947</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4838,13 +4838,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>45969</v>
+        <v>45968</v>
       </c>
       <c r="D108" t="n">
         <v>5483</v>
       </c>
       <c r="E108" t="n">
-        <v>145891407</v>
+        <v>145884559</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4961,13 +4961,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5909</v>
+        <v>5908</v>
       </c>
       <c r="D111" t="n">
         <v>1238</v>
       </c>
       <c r="E111" t="n">
-        <v>11624445</v>
+        <v>11622945</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17128</v>
+        <v>17127</v>
       </c>
       <c r="D115" t="n">
         <v>3338</v>
       </c>
       <c r="E115" t="n">
-        <v>37534002</v>
+        <v>37513971</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6560,13 +6560,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>94996</v>
+        <v>94995</v>
       </c>
       <c r="D150" t="n">
-        <v>21156</v>
+        <v>21155</v>
       </c>
       <c r="E150" t="n">
-        <v>278333598</v>
+        <v>278330618</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>126011</v>
+        <v>126010</v>
       </c>
       <c r="D152" t="n">
         <v>13497</v>
       </c>
       <c r="E152" t="n">
-        <v>715366771</v>
+        <v>715356771</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>47577</v>
+        <v>47575</v>
       </c>
       <c r="D156" t="n">
         <v>9992</v>
       </c>
       <c r="E156" t="n">
-        <v>142329064</v>
+        <v>142313810</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>284699</v>
+        <v>284690</v>
       </c>
       <c r="D168" t="n">
         <v>58113</v>
       </c>
       <c r="E168" t="n">
-        <v>1201325120</v>
+        <v>1201165792</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562449</v>
+        <v>562447</v>
       </c>
       <c r="D169" t="n">
         <v>60951</v>
       </c>
       <c r="E169" t="n">
-        <v>1283421431</v>
+        <v>1283415930</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>366857</v>
+        <v>366853</v>
       </c>
       <c r="D170" t="n">
         <v>38094</v>
       </c>
       <c r="E170" t="n">
-        <v>2838343332</v>
+        <v>2838319073</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>114999</v>
+        <v>114998</v>
       </c>
       <c r="D171" t="n">
         <v>20259</v>
       </c>
       <c r="E171" t="n">
-        <v>441783336</v>
+        <v>441773336</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>356936</v>
+        <v>356935</v>
       </c>
       <c r="D174" t="n">
         <v>69780</v>
       </c>
       <c r="E174" t="n">
-        <v>1012747979</v>
+        <v>1012747379</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125354</v>
+        <v>125349</v>
       </c>
       <c r="D175" t="n">
         <v>18097</v>
       </c>
       <c r="E175" t="n">
-        <v>804226999</v>
+        <v>803974249</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96726</v>
+        <v>96724</v>
       </c>
       <c r="D177" t="n">
         <v>16506</v>
       </c>
       <c r="E177" t="n">
-        <v>174206346</v>
+        <v>174195240</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235435</v>
+        <v>235430</v>
       </c>
       <c r="D179" t="n">
         <v>29330</v>
       </c>
       <c r="E179" t="n">
-        <v>808022277</v>
+        <v>807980332</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141376</v>
+        <v>141375</v>
       </c>
       <c r="D180" t="n">
         <v>28890</v>
       </c>
       <c r="E180" t="n">
-        <v>338892343</v>
+        <v>338890651</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6444</v>
+        <v>6443</v>
       </c>
       <c r="D182" t="n">
         <v>1658</v>
       </c>
       <c r="E182" t="n">
-        <v>12761396</v>
+        <v>12759896</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -8569,13 +8569,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="D199" t="n">
         <v>848</v>
       </c>
       <c r="E199" t="n">
-        <v>8781595</v>
+        <v>8780876</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>12776</v>
+        <v>12769</v>
       </c>
       <c r="D203" t="n">
         <v>2290</v>
       </c>
       <c r="E203" t="n">
-        <v>32128249</v>
+        <v>32112207</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4642</v>
+        <v>4640</v>
       </c>
       <c r="D204" t="n">
         <v>728</v>
       </c>
       <c r="E204" t="n">
-        <v>11054908</v>
+        <v>11049190</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>10736</v>
+        <v>10727</v>
       </c>
       <c r="D205" t="n">
         <v>1314</v>
       </c>
       <c r="E205" t="n">
-        <v>41639457</v>
+        <v>41578823</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8938,13 +8938,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D208" t="n">
         <v>313</v>
       </c>
       <c r="E208" t="n">
-        <v>3189944</v>
+        <v>3187444</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="D213" t="n">
         <v>402</v>
       </c>
       <c r="E213" t="n">
-        <v>10616906</v>
+        <v>10616306</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9184,13 +9184,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D214" t="n">
         <v>1076</v>
       </c>
       <c r="E214" t="n">
-        <v>10897376</v>
+        <v>10896175</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -10537,13 +10537,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>29418</v>
+        <v>29417</v>
       </c>
       <c r="D247" t="n">
         <v>3751</v>
       </c>
       <c r="E247" t="n">
-        <v>99422101</v>
+        <v>99420663</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -11726,13 +11726,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>216591</v>
+        <v>216590</v>
       </c>
       <c r="D276" t="n">
         <v>23464</v>
       </c>
       <c r="E276" t="n">
-        <v>1209582781</v>
+        <v>1209581281</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -12505,13 +12505,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>91314</v>
+        <v>91313</v>
       </c>
       <c r="D295" t="n">
         <v>9956</v>
       </c>
       <c r="E295" t="n">
-        <v>552789957</v>
+        <v>552788457</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -12628,13 +12628,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>11914</v>
+        <v>11912</v>
       </c>
       <c r="D298" t="n">
         <v>2959</v>
       </c>
       <c r="E298" t="n">
-        <v>24041275</v>
+        <v>24040364</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -13161,13 +13161,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>190831</v>
+        <v>190830</v>
       </c>
       <c r="D311" t="n">
         <v>37719</v>
       </c>
       <c r="E311" t="n">
-        <v>585870572</v>
+        <v>585868780</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13243,13 +13243,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>220581</v>
+        <v>220580</v>
       </c>
       <c r="D313" t="n">
         <v>23418</v>
       </c>
       <c r="E313" t="n">
-        <v>1369869685</v>
+        <v>1369867687</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13530,13 +13530,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>67235</v>
+        <v>67234</v>
       </c>
       <c r="D320" t="n">
         <v>10279</v>
       </c>
       <c r="E320" t="n">
-        <v>124544678</v>
+        <v>124542192</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -13612,13 +13612,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>81132</v>
+        <v>81131</v>
       </c>
       <c r="D322" t="n">
         <v>9701</v>
       </c>
       <c r="E322" t="n">
-        <v>254172109</v>
+        <v>254162109</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -13653,13 +13653,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>94714</v>
+        <v>94713</v>
       </c>
       <c r="D323" t="n">
         <v>19883</v>
       </c>
       <c r="E323" t="n">
-        <v>178746675</v>
+        <v>178744833</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69556</v>
+        <v>69557</v>
       </c>
       <c r="D9" t="n">
         <v>10018</v>
       </c>
       <c r="E9" t="n">
-        <v>191321361</v>
+        <v>191325963</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278093</v>
+        <v>278095</v>
       </c>
       <c r="D10" t="n">
         <v>29586</v>
       </c>
       <c r="E10" t="n">
-        <v>1751026417</v>
+        <v>1751062814</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>119174</v>
+        <v>119177</v>
       </c>
       <c r="D14" t="n">
-        <v>25290</v>
+        <v>25291</v>
       </c>
       <c r="E14" t="n">
-        <v>379158686</v>
+        <v>379185654</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>108879</v>
+        <v>108882</v>
       </c>
       <c r="D19" t="n">
         <v>13557</v>
       </c>
       <c r="E19" t="n">
-        <v>344360661</v>
+        <v>344371442</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2296,13 +2296,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>55743</v>
+        <v>55745</v>
       </c>
       <c r="D46" t="n">
         <v>13294</v>
       </c>
       <c r="E46" t="n">
-        <v>174066006</v>
+        <v>174066078</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>10534</v>
+        <v>10535</v>
       </c>
       <c r="D64" t="n">
         <v>1958</v>
       </c>
       <c r="E64" t="n">
-        <v>25235618</v>
+        <v>25241365</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>26152</v>
+        <v>26153</v>
       </c>
       <c r="D81" t="n">
         <v>2825</v>
       </c>
       <c r="E81" t="n">
-        <v>164983877</v>
+        <v>164984477</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>136529</v>
+        <v>136530</v>
       </c>
       <c r="D99" t="n">
         <v>14096</v>
       </c>
       <c r="E99" t="n">
-        <v>862699431</v>
+        <v>862704807</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>13703</v>
+        <v>13704</v>
       </c>
       <c r="D102" t="n">
         <v>3100</v>
       </c>
       <c r="E102" t="n">
-        <v>28894138</v>
+        <v>28900107</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>22086</v>
+        <v>22087</v>
       </c>
       <c r="D104" t="n">
         <v>4583</v>
       </c>
       <c r="E104" t="n">
-        <v>84715947</v>
+        <v>84757147</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4838,13 +4838,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="D108" t="n">
         <v>5483</v>
       </c>
       <c r="E108" t="n">
-        <v>145884559</v>
+        <v>145891407</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4961,13 +4961,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="D111" t="n">
         <v>1238</v>
       </c>
       <c r="E111" t="n">
-        <v>11622945</v>
+        <v>11624445</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17127</v>
+        <v>17128</v>
       </c>
       <c r="D115" t="n">
         <v>3338</v>
       </c>
       <c r="E115" t="n">
-        <v>37513971</v>
+        <v>37534002</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6560,13 +6560,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>94995</v>
+        <v>94996</v>
       </c>
       <c r="D150" t="n">
-        <v>21155</v>
+        <v>21156</v>
       </c>
       <c r="E150" t="n">
-        <v>278330618</v>
+        <v>278333598</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>126010</v>
+        <v>126011</v>
       </c>
       <c r="D152" t="n">
         <v>13497</v>
       </c>
       <c r="E152" t="n">
-        <v>715356771</v>
+        <v>715366771</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>47575</v>
+        <v>47577</v>
       </c>
       <c r="D156" t="n">
         <v>9992</v>
       </c>
       <c r="E156" t="n">
-        <v>142313810</v>
+        <v>142329064</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>284690</v>
+        <v>284699</v>
       </c>
       <c r="D168" t="n">
         <v>58113</v>
       </c>
       <c r="E168" t="n">
-        <v>1201165792</v>
+        <v>1201325120</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562447</v>
+        <v>562449</v>
       </c>
       <c r="D169" t="n">
         <v>60951</v>
       </c>
       <c r="E169" t="n">
-        <v>1283415930</v>
+        <v>1283421431</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>366853</v>
+        <v>366857</v>
       </c>
       <c r="D170" t="n">
         <v>38094</v>
       </c>
       <c r="E170" t="n">
-        <v>2838319073</v>
+        <v>2838343332</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>114998</v>
+        <v>114999</v>
       </c>
       <c r="D171" t="n">
         <v>20259</v>
       </c>
       <c r="E171" t="n">
-        <v>441773336</v>
+        <v>441783336</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>356935</v>
+        <v>356936</v>
       </c>
       <c r="D174" t="n">
         <v>69780</v>
       </c>
       <c r="E174" t="n">
-        <v>1012747379</v>
+        <v>1012747979</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125349</v>
+        <v>125354</v>
       </c>
       <c r="D175" t="n">
         <v>18097</v>
       </c>
       <c r="E175" t="n">
-        <v>803974249</v>
+        <v>804226999</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96724</v>
+        <v>96726</v>
       </c>
       <c r="D177" t="n">
         <v>16506</v>
       </c>
       <c r="E177" t="n">
-        <v>174195240</v>
+        <v>174206346</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235430</v>
+        <v>235435</v>
       </c>
       <c r="D179" t="n">
         <v>29330</v>
       </c>
       <c r="E179" t="n">
-        <v>807980332</v>
+        <v>808022277</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141375</v>
+        <v>141376</v>
       </c>
       <c r="D180" t="n">
         <v>28890</v>
       </c>
       <c r="E180" t="n">
-        <v>338890651</v>
+        <v>338892343</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6443</v>
+        <v>6444</v>
       </c>
       <c r="D182" t="n">
         <v>1658</v>
       </c>
       <c r="E182" t="n">
-        <v>12759896</v>
+        <v>12761396</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -8569,13 +8569,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="D199" t="n">
         <v>848</v>
       </c>
       <c r="E199" t="n">
-        <v>8780876</v>
+        <v>8781595</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>12769</v>
+        <v>12776</v>
       </c>
       <c r="D203" t="n">
         <v>2290</v>
       </c>
       <c r="E203" t="n">
-        <v>32112207</v>
+        <v>32128249</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4640</v>
+        <v>4642</v>
       </c>
       <c r="D204" t="n">
         <v>728</v>
       </c>
       <c r="E204" t="n">
-        <v>11049190</v>
+        <v>11054908</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>10727</v>
+        <v>10736</v>
       </c>
       <c r="D205" t="n">
         <v>1314</v>
       </c>
       <c r="E205" t="n">
-        <v>41578823</v>
+        <v>41639457</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8938,13 +8938,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D208" t="n">
         <v>313</v>
       </c>
       <c r="E208" t="n">
-        <v>3187444</v>
+        <v>3189944</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="D213" t="n">
         <v>402</v>
       </c>
       <c r="E213" t="n">
-        <v>10616306</v>
+        <v>10616906</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9184,13 +9184,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6101</v>
+        <v>6102</v>
       </c>
       <c r="D214" t="n">
         <v>1076</v>
       </c>
       <c r="E214" t="n">
-        <v>10896175</v>
+        <v>10897376</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -10537,13 +10537,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>29417</v>
+        <v>29418</v>
       </c>
       <c r="D247" t="n">
         <v>3751</v>
       </c>
       <c r="E247" t="n">
-        <v>99420663</v>
+        <v>99422101</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -11726,13 +11726,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>216590</v>
+        <v>216591</v>
       </c>
       <c r="D276" t="n">
         <v>23464</v>
       </c>
       <c r="E276" t="n">
-        <v>1209581281</v>
+        <v>1209582781</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -12505,13 +12505,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>91313</v>
+        <v>91314</v>
       </c>
       <c r="D295" t="n">
         <v>9956</v>
       </c>
       <c r="E295" t="n">
-        <v>552788457</v>
+        <v>552789957</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -12628,13 +12628,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>11912</v>
+        <v>11914</v>
       </c>
       <c r="D298" t="n">
         <v>2959</v>
       </c>
       <c r="E298" t="n">
-        <v>24040364</v>
+        <v>24041275</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -13161,13 +13161,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>190830</v>
+        <v>190831</v>
       </c>
       <c r="D311" t="n">
         <v>37719</v>
       </c>
       <c r="E311" t="n">
-        <v>585868780</v>
+        <v>585870572</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13243,13 +13243,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>220580</v>
+        <v>220581</v>
       </c>
       <c r="D313" t="n">
         <v>23418</v>
       </c>
       <c r="E313" t="n">
-        <v>1369867687</v>
+        <v>1369869685</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13530,13 +13530,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>67234</v>
+        <v>67235</v>
       </c>
       <c r="D320" t="n">
         <v>10279</v>
       </c>
       <c r="E320" t="n">
-        <v>124542192</v>
+        <v>124544678</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -13612,13 +13612,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>81131</v>
+        <v>81132</v>
       </c>
       <c r="D322" t="n">
         <v>9701</v>
       </c>
       <c r="E322" t="n">
-        <v>254162109</v>
+        <v>254172109</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -13653,13 +13653,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>94713</v>
+        <v>94714</v>
       </c>
       <c r="D323" t="n">
         <v>19883</v>
       </c>
       <c r="E323" t="n">
-        <v>178744833</v>
+        <v>178746675</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
